--- a/Portfolio_details.xlsx
+++ b/Portfolio_details.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>SHARES</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>THRESHOLD_LIMIT</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -461,19 +466,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAI KUMAR</t>
+          <t>SWAMY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TCS</t>
+          <t>AWHCL</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>200</v>
+        <v>673</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -482,19 +490,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAI KUMAR</t>
+          <t>SWAMY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>WIPRO</t>
+          <t>BANKINDIA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>500</v>
+        <v>111.35</v>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
+        <v>12</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -503,19 +514,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SATYA</t>
+          <t>SWAMY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HDFCBANK</t>
+          <t>BSOFT</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>500</v>
+        <v>592.22</v>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -524,19 +538,118 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SATYA</t>
+          <t>SWAMY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>WIPRO</t>
+          <t>CONCOR</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>810.2</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SWAMY</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>GAIL</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>189.75</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SWAMY</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>HINDUNILVR</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2411.2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SWAMY</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>RELIANCE</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1298.7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SWAMY</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SOUTHBANK</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>24.17</v>
+      </c>
+      <c r="E9" t="n">
+        <v>80</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Portfolio_details.xlsx
+++ b/Portfolio_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Vizual Studio Code\Python Programs\Project-PriceAlert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41897FD-6498-4111-831B-D1898D0D08B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EAAE7A-06BA-40D3-96E7-E5AECD60E5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A63"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24:F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,7 +631,7 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -654,7 +654,7 @@
         <v>12</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -677,7 +677,7 @@
         <v>7</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -700,7 +700,7 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
@@ -723,7 +723,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
@@ -746,7 +746,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
@@ -769,7 +769,7 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
         <v>8</v>
@@ -792,7 +792,7 @@
         <v>80</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
@@ -1137,7 +1137,7 @@
         <v>10</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -1160,7 +1160,7 @@
         <v>3</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G25" t="s">
         <v>29</v>
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
@@ -1206,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G27" t="s">
         <v>29</v>
@@ -1229,7 +1229,7 @@
         <v>2</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G28" t="s">
         <v>29</v>
@@ -1252,7 +1252,7 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G29" t="s">
         <v>29</v>
@@ -1275,7 +1275,7 @@
         <v>2</v>
       </c>
       <c r="F30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G30" t="s">
         <v>29</v>
@@ -1298,7 +1298,7 @@
         <v>5</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G31" t="s">
         <v>29</v>
@@ -1321,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G32" t="s">
         <v>29</v>
@@ -1344,7 +1344,7 @@
         <v>3</v>
       </c>
       <c r="F33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G33" t="s">
         <v>29</v>
@@ -1367,7 +1367,7 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G34" t="s">
         <v>29</v>
@@ -1390,7 +1390,7 @@
         <v>4</v>
       </c>
       <c r="F35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G35" t="s">
         <v>29</v>
@@ -1413,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G36" t="s">
         <v>29</v>
@@ -1436,7 +1436,7 @@
         <v>5</v>
       </c>
       <c r="F37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G37" t="s">
         <v>29</v>
@@ -1459,7 +1459,7 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G38" t="s">
         <v>29</v>
@@ -1482,7 +1482,7 @@
         <v>11</v>
       </c>
       <c r="F39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G39" t="s">
         <v>29</v>
@@ -1505,7 +1505,7 @@
         <v>5</v>
       </c>
       <c r="F40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G40" t="s">
         <v>29</v>
@@ -1528,7 +1528,7 @@
         <v>2</v>
       </c>
       <c r="F41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G41" t="s">
         <v>29</v>
@@ -1551,7 +1551,7 @@
         <v>6</v>
       </c>
       <c r="F42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G42" t="s">
         <v>29</v>
@@ -1574,7 +1574,7 @@
         <v>2</v>
       </c>
       <c r="F43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G43" t="s">
         <v>29</v>
@@ -1597,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G44" t="s">
         <v>29</v>
@@ -1620,7 +1620,7 @@
         <v>2</v>
       </c>
       <c r="F45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G45" t="s">
         <v>29</v>
@@ -1643,7 +1643,7 @@
         <v>1</v>
       </c>
       <c r="F46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G46" t="s">
         <v>29</v>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G47" t="s">
         <v>29</v>
@@ -1689,7 +1689,7 @@
         <v>3</v>
       </c>
       <c r="F48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G48" t="s">
         <v>29</v>
@@ -1712,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="F49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G49" t="s">
         <v>29</v>
@@ -1735,7 +1735,7 @@
         <v>3</v>
       </c>
       <c r="F50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G50" t="s">
         <v>29</v>
@@ -1758,7 +1758,7 @@
         <v>1</v>
       </c>
       <c r="F51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G51" t="s">
         <v>29</v>
@@ -1781,7 +1781,7 @@
         <v>3</v>
       </c>
       <c r="F52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G52" t="s">
         <v>29</v>
@@ -1804,7 +1804,7 @@
         <v>1</v>
       </c>
       <c r="F53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G53" t="s">
         <v>29</v>
@@ -1827,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="F54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G54" t="s">
         <v>29</v>
@@ -1850,7 +1850,7 @@
         <v>4</v>
       </c>
       <c r="F55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G55" t="s">
         <v>29</v>
@@ -1873,7 +1873,7 @@
         <v>2</v>
       </c>
       <c r="F56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G56" t="s">
         <v>29</v>
@@ -1896,7 +1896,7 @@
         <v>11</v>
       </c>
       <c r="F57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G57" t="s">
         <v>29</v>
@@ -1919,7 +1919,7 @@
         <v>6</v>
       </c>
       <c r="F58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G58" t="s">
         <v>29</v>
@@ -1942,7 +1942,7 @@
         <v>5</v>
       </c>
       <c r="F59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G59" t="s">
         <v>29</v>
@@ -1965,7 +1965,7 @@
         <v>1</v>
       </c>
       <c r="F60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G60" t="s">
         <v>29</v>
@@ -1988,7 +1988,7 @@
         <v>3</v>
       </c>
       <c r="F61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G61" t="s">
         <v>29</v>
@@ -2011,7 +2011,7 @@
         <v>10</v>
       </c>
       <c r="F62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G62" t="s">
         <v>29</v>
@@ -2034,7 +2034,7 @@
         <v>171</v>
       </c>
       <c r="F63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G63" t="s">
         <v>29</v>

--- a/Portfolio_details.xlsx
+++ b/Portfolio_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Vizual Studio Code\Python Programs\Project-PriceAlert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EAAE7A-06BA-40D3-96E7-E5AECD60E5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A76645-CC62-4AB1-A0BB-F64E89CECFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="68">
   <si>
     <t>PORT_HOLDER</t>
   </si>
@@ -215,6 +215,15 @@
   </si>
   <si>
     <t>nillanagaraju567@gmail.com</t>
+  </si>
+  <si>
+    <t>STERTOOLS</t>
+  </si>
+  <si>
+    <t>HARSH VARDHAN</t>
+  </si>
+  <si>
+    <t>nunna.harshavardhan2001@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -270,10 +279,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -577,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:F63"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2040,6 +2052,52 @@
         <v>29</v>
       </c>
     </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" t="s">
+        <v>65</v>
+      </c>
+      <c r="D64" s="2">
+        <v>356.45</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="2">
+        <v>873.56669999999997</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+      <c r="G65" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1" xr:uid="{B2A2DC19-9AB8-4C03-915D-DF693B8D72F4}"/>

--- a/Portfolio_details.xlsx
+++ b/Portfolio_details.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Vizual Studio Code\Python Programs\Project-PriceAlert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A76645-CC62-4AB1-A0BB-F64E89CECFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCFFCFD-70A4-48FD-B1E6-7C35CE3FA463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="112">
   <si>
     <t>PORT_HOLDER</t>
   </si>
@@ -40,190 +40,322 @@
     <t>Email</t>
   </si>
   <si>
+    <t>BSE/NSE</t>
+  </si>
+  <si>
+    <t>REF_SYMBOL</t>
+  </si>
+  <si>
+    <t>NARAVA VEERA SAI KUMAR</t>
+  </si>
+  <si>
+    <t>BAJAJHIND.BO</t>
+  </si>
+  <si>
+    <t>n.v.saikumar9@gmail.com</t>
+  </si>
+  <si>
+    <t>BSE</t>
+  </si>
+  <si>
+    <t>BAJAJHIND</t>
+  </si>
+  <si>
+    <t>BANDHANBNK.BO</t>
+  </si>
+  <si>
+    <t>BANDHANBNK</t>
+  </si>
+  <si>
+    <t>BANKBARODA.NS</t>
+  </si>
+  <si>
+    <t>NSE</t>
+  </si>
+  <si>
+    <t>BANKBARODA</t>
+  </si>
+  <si>
+    <t>BHEL.BO</t>
+  </si>
+  <si>
+    <t>BHEL</t>
+  </si>
+  <si>
+    <t>BIGBLOC.NS</t>
+  </si>
+  <si>
+    <t>BIGBLOC</t>
+  </si>
+  <si>
+    <t>CANBK.BO</t>
+  </si>
+  <si>
+    <t>CANBK</t>
+  </si>
+  <si>
+    <t>COCHINSHIP.BO</t>
+  </si>
+  <si>
+    <t>COCHINSHIP</t>
+  </si>
+  <si>
+    <t>DELTACORP.BO</t>
+  </si>
+  <si>
+    <t>DELTACORP</t>
+  </si>
+  <si>
+    <t>EMBDL.NS</t>
+  </si>
+  <si>
+    <t>EMBDL</t>
+  </si>
+  <si>
+    <t>EXIDEIND.NS</t>
+  </si>
+  <si>
+    <t>EXIDEIND</t>
+  </si>
+  <si>
+    <t>GLENMARK.NS</t>
+  </si>
+  <si>
+    <t>GLENMARK</t>
+  </si>
+  <si>
+    <t>HDFCBANK.NS</t>
+  </si>
+  <si>
+    <t>HDFCBANK</t>
+  </si>
+  <si>
+    <t>ICICIBANK.NS</t>
+  </si>
+  <si>
+    <t>ICICIBANK</t>
+  </si>
+  <si>
+    <t>IDBI.NS</t>
+  </si>
+  <si>
+    <t>IDBI</t>
+  </si>
+  <si>
+    <t>IDEA.BO</t>
+  </si>
+  <si>
+    <t>IDEA</t>
+  </si>
+  <si>
+    <t>IDFCFIRSTB.BO</t>
+  </si>
+  <si>
+    <t>IDFCFIRSTB</t>
+  </si>
+  <si>
+    <t>IEX.NS</t>
+  </si>
+  <si>
+    <t>IEX</t>
+  </si>
+  <si>
+    <t>ITC.NS</t>
+  </si>
+  <si>
+    <t>ITC</t>
+  </si>
+  <si>
+    <t>JPPOWER.BO</t>
+  </si>
+  <si>
+    <t>JPPOWER</t>
+  </si>
+  <si>
+    <t>KALAMANDIR.NS</t>
+  </si>
+  <si>
+    <t>KALAMANDIR</t>
+  </si>
+  <si>
+    <t>KPIGREEN.NS</t>
+  </si>
+  <si>
+    <t>KPIGREEN</t>
+  </si>
+  <si>
+    <t>LTF.NS</t>
+  </si>
+  <si>
+    <t>LTF</t>
+  </si>
+  <si>
+    <t>LAURUSLABS.NS</t>
+  </si>
+  <si>
+    <t>LAURUSLABS</t>
+  </si>
+  <si>
+    <t>NTPC.NS</t>
+  </si>
+  <si>
+    <t>NTPC</t>
+  </si>
+  <si>
+    <t>ONGC.NS</t>
+  </si>
+  <si>
+    <t>ONGC</t>
+  </si>
+  <si>
+    <t>PNB.NS</t>
+  </si>
+  <si>
+    <t>PNB</t>
+  </si>
+  <si>
+    <t>PREMIERENE.NS</t>
+  </si>
+  <si>
+    <t>PREMIERENE</t>
+  </si>
+  <si>
+    <t>RPOWER.BO</t>
+  </si>
+  <si>
+    <t>RPOWER</t>
+  </si>
+  <si>
+    <t>SBIN.NS</t>
+  </si>
+  <si>
+    <t>SBIN</t>
+  </si>
+  <si>
+    <t>SUVEN.NS</t>
+  </si>
+  <si>
+    <t>SUVEN</t>
+  </si>
+  <si>
+    <t>TATAMOTORS.NS</t>
+  </si>
+  <si>
+    <t>TATAMOTORS</t>
+  </si>
+  <si>
+    <t>TECHM.NS</t>
+  </si>
+  <si>
+    <t>TECHM</t>
+  </si>
+  <si>
+    <t>TFCILTD.BO</t>
+  </si>
+  <si>
+    <t>TFCILTD</t>
+  </si>
+  <si>
+    <t>UCOBANK.BO</t>
+  </si>
+  <si>
+    <t>UCOBANK</t>
+  </si>
+  <si>
+    <t>VAKRANGEE.NS</t>
+  </si>
+  <si>
+    <t>VAKRANGEE</t>
+  </si>
+  <si>
+    <t>VISAKAIND.NS</t>
+  </si>
+  <si>
+    <t>VISAKAIND</t>
+  </si>
+  <si>
+    <t>VMM.NS</t>
+  </si>
+  <si>
+    <t>VMM</t>
+  </si>
+  <si>
+    <t>VOLTAS.BO</t>
+  </si>
+  <si>
+    <t>VOLTAS</t>
+  </si>
+  <si>
+    <t>WABAG.NS</t>
+  </si>
+  <si>
+    <t>WABAG</t>
+  </si>
+  <si>
+    <t>WIPRO.NS</t>
+  </si>
+  <si>
+    <t>WIPRO</t>
+  </si>
+  <si>
+    <t>YESBANK.NS</t>
+  </si>
+  <si>
+    <t>YESBANK</t>
+  </si>
+  <si>
     <t>NARAVA GURUSWAMY SRINIVAS</t>
   </si>
   <si>
+    <t>AWHCL.NS</t>
+  </si>
+  <si>
+    <t>naravaswamy9@gmail.com</t>
+  </si>
+  <si>
     <t>AWHCL</t>
   </si>
   <si>
-    <t>naravaswamy9@gmail.com</t>
+    <t>BANKINDIA.NS</t>
   </si>
   <si>
     <t>BANKINDIA</t>
   </si>
   <si>
+    <t>BSOFT.NS</t>
+  </si>
+  <si>
     <t>BSOFT</t>
   </si>
   <si>
+    <t>CONCOR.NS</t>
+  </si>
+  <si>
     <t>CONCOR</t>
   </si>
   <si>
+    <t>GAIL.NS</t>
+  </si>
+  <si>
     <t>GAIL</t>
   </si>
   <si>
+    <t>HINDUNILVR.BO</t>
+  </si>
+  <si>
     <t>HINDUNILVR</t>
   </si>
   <si>
+    <t>RELIANCE.NS</t>
+  </si>
+  <si>
     <t>RELIANCE</t>
   </si>
   <si>
+    <t>SOUTHBANK.BO</t>
+  </si>
+  <si>
     <t>SOUTHBANK</t>
-  </si>
-  <si>
-    <t>NILLA NAGRAJ</t>
-  </si>
-  <si>
-    <t>COCHINSHIP</t>
-  </si>
-  <si>
-    <t>EXCELINDUS</t>
-  </si>
-  <si>
-    <t>EXIDEIND</t>
-  </si>
-  <si>
-    <t>HAPPSTMNDS</t>
-  </si>
-  <si>
-    <t>IDFCFIRSTB</t>
-  </si>
-  <si>
-    <t>KPIGREEN</t>
-  </si>
-  <si>
-    <t>MAHABANK</t>
-  </si>
-  <si>
-    <t>SAIL</t>
-  </si>
-  <si>
-    <t>TATAMOTORS</t>
-  </si>
-  <si>
-    <t>TCS</t>
-  </si>
-  <si>
-    <t>NARAVA VEERA SAI KUMAR</t>
-  </si>
-  <si>
-    <t>BAJAJHIND</t>
-  </si>
-  <si>
-    <t>n.v.saikumar9@gmail.com</t>
-  </si>
-  <si>
-    <t>BANDHANBNK</t>
-  </si>
-  <si>
-    <t>BANKBARODA</t>
-  </si>
-  <si>
-    <t>BHEL</t>
-  </si>
-  <si>
-    <t>BIGBLOC</t>
-  </si>
-  <si>
-    <t>CANBK</t>
-  </si>
-  <si>
-    <t>DELTACORP</t>
-  </si>
-  <si>
-    <t>EMBDL</t>
-  </si>
-  <si>
-    <t>GLENMARK</t>
-  </si>
-  <si>
-    <t>HDFCBANK</t>
-  </si>
-  <si>
-    <t>ICICIBANK</t>
-  </si>
-  <si>
-    <t>IDBI</t>
-  </si>
-  <si>
-    <t>IDEA</t>
-  </si>
-  <si>
-    <t>IEX</t>
-  </si>
-  <si>
-    <t>ITC</t>
-  </si>
-  <si>
-    <t>KALAMANDIR</t>
-  </si>
-  <si>
-    <t>LTF</t>
-  </si>
-  <si>
-    <t>LAURUSLABS</t>
-  </si>
-  <si>
-    <t>NTPC</t>
-  </si>
-  <si>
-    <t>ONGC</t>
-  </si>
-  <si>
-    <t>PNB</t>
-  </si>
-  <si>
-    <t>PREMIERENE</t>
-  </si>
-  <si>
-    <t>RPOWER</t>
-  </si>
-  <si>
-    <t>SBIN</t>
-  </si>
-  <si>
-    <t>SUVEN</t>
-  </si>
-  <si>
-    <t>TECHM</t>
-  </si>
-  <si>
-    <t>TFCILTD</t>
-  </si>
-  <si>
-    <t>UCOBANK</t>
-  </si>
-  <si>
-    <t>VAKRANGEE</t>
-  </si>
-  <si>
-    <t>VISAKAIND</t>
-  </si>
-  <si>
-    <t>VMM</t>
-  </si>
-  <si>
-    <t>VOLTAS</t>
-  </si>
-  <si>
-    <t>WABAG</t>
-  </si>
-  <si>
-    <t>WIPRO</t>
-  </si>
-  <si>
-    <t>YESBANK</t>
-  </si>
-  <si>
-    <t>nillanagaraju567@gmail.com</t>
-  </si>
-  <si>
-    <t>STERTOOLS</t>
-  </si>
-  <si>
-    <t>HARSH VARDHAN</t>
-  </si>
-  <si>
-    <t>nunna.harshavardhan2001@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -242,14 +374,21 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -284,9 +423,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,24 +726,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.21875" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,571 +764,721 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>673</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>111.35</v>
+        <v>199.2</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>592.22</v>
+        <v>238.45</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>59.35</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="D5">
-        <v>810.2</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>19.95</v>
+      </c>
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>189.75</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>2411.1999999999998</v>
+        <v>106.68</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>1298.7</v>
+        <v>1519.5</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>24.17</v>
+        <v>140.4</v>
       </c>
       <c r="E9">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>109.88</v>
+        <v>77.150000000000006</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>1443</v>
+        <v>316.3</v>
       </c>
       <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>380.35</v>
+      </c>
+      <c r="E12">
         <v>1</v>
       </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12">
-        <v>1051</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
       <c r="F12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>379.85</v>
+        <v>1447.1</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D14">
-        <v>573.6</v>
+        <v>1258.0999999999999</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D15">
-        <v>2244</v>
+        <v>31.55</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D16">
-        <v>60.12</v>
+        <v>11.45</v>
       </c>
       <c r="E16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D17">
-        <v>420.05</v>
+        <v>72.010000000000005</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D18">
-        <v>46.28</v>
+        <v>144.59</v>
       </c>
       <c r="E18">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D19">
-        <v>1289.5</v>
+        <v>494.85</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D20">
-        <v>116.89</v>
+        <v>5.4</v>
       </c>
       <c r="E20">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D21">
-        <v>23.86</v>
+        <v>269.35000000000002</v>
       </c>
       <c r="E21">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D22">
-        <v>624.4</v>
+        <v>692.95</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D23">
-        <v>3280.3</v>
+        <v>89.45</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D24">
-        <v>10.050000000000001</v>
+        <v>357.65</v>
       </c>
       <c r="E24">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D25">
-        <v>199.2</v>
+        <v>170.2</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D26">
-        <v>238.45</v>
+        <v>122.3</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1198,136 +1487,172 @@
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D27">
-        <v>59.35</v>
+        <v>36.92</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D28">
-        <v>19.95</v>
+        <v>450</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>4</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="D29">
-        <v>106.68</v>
+        <v>23.95</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="D30">
-        <v>1519.5</v>
+        <v>353.35</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D31">
-        <v>140.4</v>
+        <v>94.7</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="D32">
-        <v>77.150000000000006</v>
+        <v>968.65</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1336,21 +1661,27 @@
         <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="D33">
-        <v>316.3</v>
+        <v>1141.0999999999999</v>
       </c>
       <c r="E33">
         <v>3</v>
@@ -1359,750 +1690,509 @@
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="D34">
-        <v>380.35</v>
+        <v>181.9</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F34">
         <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="D35">
-        <v>1447.09</v>
+        <v>12</v>
       </c>
       <c r="E35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>4</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="D36">
-        <v>1258.0999999999999</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F36">
         <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H36" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="D37">
-        <v>31.55</v>
+        <v>92.8</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F37">
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H37" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="D38">
-        <v>11.45</v>
+        <v>78</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F38">
         <v>4</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H38" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="D39">
-        <v>72</v>
-      </c>
-      <c r="E39">
+        <v>997.7</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" t="s">
         <v>11</v>
       </c>
-      <c r="F39">
-        <v>4</v>
-      </c>
-      <c r="G39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="D40">
-        <v>144.59</v>
+        <v>267.8</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F40">
         <v>4</v>
       </c>
       <c r="G40" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="D41">
-        <v>494.85</v>
-      </c>
-      <c r="E41">
-        <v>2</v>
+        <v>219.32</v>
+      </c>
+      <c r="E41" s="2">
+        <v>4</v>
       </c>
       <c r="F41">
         <v>4</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="D42">
-        <v>269.35000000000002</v>
+        <v>14.57</v>
       </c>
       <c r="E42">
-        <v>6</v>
+        <v>171</v>
       </c>
       <c r="F42">
         <v>4</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="D43">
-        <v>692.95</v>
+        <v>673</v>
       </c>
       <c r="E43">
         <v>2</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="H43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="D44">
-        <v>89.45</v>
+        <v>111.35</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G44" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="H44" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="D45">
-        <v>357.65</v>
+        <v>592.22</v>
       </c>
       <c r="E45">
+        <v>7</v>
+      </c>
+      <c r="F45">
         <v>2</v>
       </c>
-      <c r="F45">
-        <v>4</v>
-      </c>
       <c r="G45" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="H45" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="D46">
-        <v>17.02</v>
+        <v>810.2</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G46" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="H46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="D47">
-        <v>122.3</v>
+        <v>189.75</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G47" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="H47" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="D48">
-        <v>36.909999999999997</v>
+        <v>2411.1999999999998</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="H48" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="D49">
-        <v>450</v>
+        <v>1298.7</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G49" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="H49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="D50">
-        <v>23.95</v>
+        <v>24.17</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="F50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" t="s">
-        <v>52</v>
-      </c>
-      <c r="D51">
-        <v>353.35</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <v>4</v>
-      </c>
-      <c r="G51" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C52" t="s">
-        <v>53</v>
-      </c>
-      <c r="D52">
-        <v>94.7</v>
-      </c>
-      <c r="E52">
-        <v>3</v>
-      </c>
-      <c r="F52">
-        <v>4</v>
-      </c>
-      <c r="G52" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" t="s">
-        <v>25</v>
-      </c>
-      <c r="D53">
-        <v>968.65</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53">
-        <v>4</v>
-      </c>
-      <c r="G53" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>27</v>
-      </c>
-      <c r="C54" t="s">
-        <v>54</v>
-      </c>
-      <c r="D54">
-        <v>1141.0999999999999</v>
-      </c>
-      <c r="E54">
-        <v>3</v>
-      </c>
-      <c r="F54">
-        <v>4</v>
-      </c>
-      <c r="G54" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>27</v>
-      </c>
-      <c r="C55" t="s">
-        <v>55</v>
-      </c>
-      <c r="D55">
-        <v>181.9</v>
-      </c>
-      <c r="E55">
-        <v>4</v>
-      </c>
-      <c r="F55">
-        <v>4</v>
-      </c>
-      <c r="G55" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>27</v>
-      </c>
-      <c r="C56" t="s">
-        <v>56</v>
-      </c>
-      <c r="D56">
-        <v>12</v>
-      </c>
-      <c r="E56">
-        <v>2</v>
-      </c>
-      <c r="F56">
-        <v>4</v>
-      </c>
-      <c r="G56" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" t="s">
-        <v>57</v>
-      </c>
-      <c r="D57">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="E57">
+        <v>96</v>
+      </c>
+      <c r="H50" t="s">
         <v>11</v>
       </c>
-      <c r="F57">
-        <v>4</v>
-      </c>
-      <c r="G57" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>27</v>
-      </c>
-      <c r="C58" t="s">
-        <v>58</v>
-      </c>
-      <c r="D58">
-        <v>92.8</v>
-      </c>
-      <c r="E58">
-        <v>6</v>
-      </c>
-      <c r="F58">
-        <v>4</v>
-      </c>
-      <c r="G58" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>27</v>
-      </c>
-      <c r="C59" t="s">
-        <v>59</v>
-      </c>
-      <c r="D59">
-        <v>78</v>
-      </c>
-      <c r="E59">
-        <v>5</v>
-      </c>
-      <c r="F59">
-        <v>4</v>
-      </c>
-      <c r="G59" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>27</v>
-      </c>
-      <c r="C60" t="s">
-        <v>60</v>
-      </c>
-      <c r="D60">
-        <v>997.7</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60">
-        <v>4</v>
-      </c>
-      <c r="G60" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>27</v>
-      </c>
-      <c r="C61" t="s">
-        <v>61</v>
-      </c>
-      <c r="D61">
-        <v>267.8</v>
-      </c>
-      <c r="E61">
-        <v>3</v>
-      </c>
-      <c r="F61">
-        <v>4</v>
-      </c>
-      <c r="G61" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>27</v>
-      </c>
-      <c r="C62" t="s">
-        <v>62</v>
-      </c>
-      <c r="D62">
-        <v>219.32</v>
-      </c>
-      <c r="E62">
-        <v>10</v>
-      </c>
-      <c r="F62">
-        <v>4</v>
-      </c>
-      <c r="G62" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>27</v>
-      </c>
-      <c r="C63" t="s">
-        <v>63</v>
-      </c>
-      <c r="D63">
-        <v>14.57</v>
-      </c>
-      <c r="E63">
-        <v>171</v>
-      </c>
-      <c r="F63">
-        <v>4</v>
-      </c>
-      <c r="G63" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>66</v>
-      </c>
-      <c r="C64" t="s">
-        <v>65</v>
-      </c>
-      <c r="D64" s="2">
-        <v>356.45</v>
-      </c>
-      <c r="E64">
-        <v>5</v>
-      </c>
-      <c r="F64">
-        <v>3</v>
-      </c>
-      <c r="G64" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>66</v>
-      </c>
-      <c r="C65" t="s">
-        <v>25</v>
-      </c>
-      <c r="D65" s="2">
-        <v>873.56669999999997</v>
-      </c>
-      <c r="E65">
-        <v>3</v>
-      </c>
-      <c r="F65">
-        <v>3</v>
-      </c>
-      <c r="G65" t="s">
-        <v>67</v>
+      <c r="I50" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G10" r:id="rId1" xr:uid="{B2A2DC19-9AB8-4C03-915D-DF693B8D72F4}"/>
-    <hyperlink ref="G11:G23" r:id="rId2" display="nillanagaraju567@gmail.com" xr:uid="{A85D8433-4160-4D90-AA9F-4FF0CA7843AB}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Portfolio_details.xlsx
+++ b/Portfolio_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Vizual Studio Code\Python Programs\Project-PriceAlert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCFFCFD-70A4-48FD-B1E6-7C35CE3FA463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4695184-35BF-49B2-A1ED-1B17AFC2005B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="128">
   <si>
     <t>PORT_HOLDER</t>
   </si>
@@ -46,6 +46,102 @@
     <t>REF_SYMBOL</t>
   </si>
   <si>
+    <t>NILLA NAGRAJ</t>
+  </si>
+  <si>
+    <t>BANKINDIA.NS</t>
+  </si>
+  <si>
+    <t>nillanagaraju567@gmail.com</t>
+  </si>
+  <si>
+    <t>NSE</t>
+  </si>
+  <si>
+    <t>BANKINDIA</t>
+  </si>
+  <si>
+    <t>COCHINSHIP.NS</t>
+  </si>
+  <si>
+    <t>COCHINSHIP</t>
+  </si>
+  <si>
+    <t>EXCELINDUS.NS</t>
+  </si>
+  <si>
+    <t>EXCELINDUS</t>
+  </si>
+  <si>
+    <t>EXIDEIND.NS</t>
+  </si>
+  <si>
+    <t>EXIDEIND</t>
+  </si>
+  <si>
+    <t>HAPPSTMNDS.NS</t>
+  </si>
+  <si>
+    <t>HAPPSTMNDS</t>
+  </si>
+  <si>
+    <t>HINDUNILVR.BO</t>
+  </si>
+  <si>
+    <t>BSE</t>
+  </si>
+  <si>
+    <t>HINDUNILVR</t>
+  </si>
+  <si>
+    <t>IDFCFIRSTB.BO</t>
+  </si>
+  <si>
+    <t>IDFCFIRSTB</t>
+  </si>
+  <si>
+    <t>KPIGREEN.BO</t>
+  </si>
+  <si>
+    <t>KPIGREEN</t>
+  </si>
+  <si>
+    <t>MAHABANK.BO</t>
+  </si>
+  <si>
+    <t>MAHABANK</t>
+  </si>
+  <si>
+    <t>RELIANCE.BO</t>
+  </si>
+  <si>
+    <t>RELIANCE</t>
+  </si>
+  <si>
+    <t>SAIL.NS</t>
+  </si>
+  <si>
+    <t>SAIL</t>
+  </si>
+  <si>
+    <t>SOUTHBANK.BO</t>
+  </si>
+  <si>
+    <t>SOUTHBANK</t>
+  </si>
+  <si>
+    <t>TATAMOTORS.BO</t>
+  </si>
+  <si>
+    <t>TATAMOTORS</t>
+  </si>
+  <si>
+    <t>TCS.BO</t>
+  </si>
+  <si>
+    <t>TCS</t>
+  </si>
+  <si>
     <t>NARAVA VEERA SAI KUMAR</t>
   </si>
   <si>
@@ -55,9 +151,6 @@
     <t>n.v.saikumar9@gmail.com</t>
   </si>
   <si>
-    <t>BSE</t>
-  </si>
-  <si>
     <t>BAJAJHIND</t>
   </si>
   <si>
@@ -70,9 +163,6 @@
     <t>BANKBARODA.NS</t>
   </si>
   <si>
-    <t>NSE</t>
-  </si>
-  <si>
     <t>BANKBARODA</t>
   </si>
   <si>
@@ -97,9 +187,6 @@
     <t>COCHINSHIP.BO</t>
   </si>
   <si>
-    <t>COCHINSHIP</t>
-  </si>
-  <si>
     <t>DELTACORP.BO</t>
   </si>
   <si>
@@ -112,12 +199,6 @@
     <t>EMBDL</t>
   </si>
   <si>
-    <t>EXIDEIND.NS</t>
-  </si>
-  <si>
-    <t>EXIDEIND</t>
-  </si>
-  <si>
     <t>GLENMARK.NS</t>
   </si>
   <si>
@@ -148,12 +229,6 @@
     <t>IDEA</t>
   </si>
   <si>
-    <t>IDFCFIRSTB.BO</t>
-  </si>
-  <si>
-    <t>IDFCFIRSTB</t>
-  </si>
-  <si>
     <t>IEX.NS</t>
   </si>
   <si>
@@ -181,9 +256,6 @@
     <t>KPIGREEN.NS</t>
   </si>
   <si>
-    <t>KPIGREEN</t>
-  </si>
-  <si>
     <t>LTF.NS</t>
   </si>
   <si>
@@ -241,9 +313,6 @@
     <t>TATAMOTORS.NS</t>
   </si>
   <si>
-    <t>TATAMOTORS</t>
-  </si>
-  <si>
     <t>TECHM.NS</t>
   </si>
   <si>
@@ -316,12 +385,6 @@
     <t>AWHCL</t>
   </si>
   <si>
-    <t>BANKINDIA.NS</t>
-  </si>
-  <si>
-    <t>BANKINDIA</t>
-  </si>
-  <si>
     <t>BSOFT.NS</t>
   </si>
   <si>
@@ -340,22 +403,7 @@
     <t>GAIL</t>
   </si>
   <si>
-    <t>HINDUNILVR.BO</t>
-  </si>
-  <si>
-    <t>HINDUNILVR</t>
-  </si>
-  <si>
     <t>RELIANCE.NS</t>
-  </si>
-  <si>
-    <t>RELIANCE</t>
-  </si>
-  <si>
-    <t>SOUTHBANK.BO</t>
-  </si>
-  <si>
-    <t>SOUTHBANK</t>
   </si>
 </sst>
 </file>
@@ -374,21 +422,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -418,12 +459,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,23 +766,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -782,13 +822,13 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>10.050000000000001</v>
+        <v>109.88</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -811,13 +851,13 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>199.2</v>
+        <v>1443</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>3</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -840,22 +880,22 @@
         <v>15</v>
       </c>
       <c r="D4">
-        <v>238.45</v>
+        <v>1051</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
       </c>
       <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
         <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -866,16 +906,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>59.35</v>
+        <v>379.85</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -884,7 +924,7 @@
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -895,25 +935,25 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>19.95</v>
+        <v>573.6</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -924,22 +964,22 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>106.68</v>
+        <v>2244</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
         <v>23</v>
@@ -956,19 +996,19 @@
         <v>24</v>
       </c>
       <c r="D8">
-        <v>1519.5</v>
+        <v>60.12</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I8" t="s">
         <v>25</v>
@@ -985,19 +1025,19 @@
         <v>26</v>
       </c>
       <c r="D9">
-        <v>140.4</v>
+        <v>420.05</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I9" t="s">
         <v>27</v>
@@ -1014,19 +1054,19 @@
         <v>28</v>
       </c>
       <c r="D10">
-        <v>77.150000000000006</v>
+        <v>46.28</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I10" t="s">
         <v>29</v>
@@ -1043,19 +1083,19 @@
         <v>30</v>
       </c>
       <c r="D11">
-        <v>316.3</v>
+        <v>1289.5</v>
       </c>
       <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
         <v>3</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I11" t="s">
         <v>31</v>
@@ -1072,19 +1112,19 @@
         <v>32</v>
       </c>
       <c r="D12">
-        <v>380.35</v>
+        <v>116.89</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I12" t="s">
         <v>33</v>
@@ -1101,19 +1141,19 @@
         <v>34</v>
       </c>
       <c r="D13">
-        <v>1447.1</v>
+        <v>23.86</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I13" t="s">
         <v>35</v>
@@ -1130,19 +1170,19 @@
         <v>36</v>
       </c>
       <c r="D14">
-        <v>1258.0999999999999</v>
+        <v>624.4</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I14" t="s">
         <v>37</v>
@@ -1159,19 +1199,19 @@
         <v>38</v>
       </c>
       <c r="D15">
-        <v>31.55</v>
+        <v>3280.3</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I15" t="s">
         <v>39</v>
@@ -1182,28 +1222,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16">
-        <v>11.45</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F16">
         <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1211,28 +1251,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D17">
-        <v>72.010000000000005</v>
+        <v>199.2</v>
       </c>
       <c r="E17">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1240,28 +1280,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D18">
-        <v>144.59</v>
+        <v>238.45</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>4</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="H18" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1269,28 +1309,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D19">
-        <v>494.85</v>
+        <v>59.35</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1298,28 +1338,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D20">
-        <v>5.4</v>
+        <v>19.95</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="H20" t="s">
         <v>11</v>
       </c>
       <c r="I20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1327,28 +1367,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D21">
-        <v>269.35000000000002</v>
+        <v>106.68</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="H21" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1356,13 +1396,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D22">
-        <v>692.95</v>
+        <v>1519.5</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -1371,13 +1411,13 @@
         <v>4</v>
       </c>
       <c r="G22" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="H22" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I22" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1385,28 +1425,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D23">
-        <v>89.45</v>
+        <v>140.4</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F23">
         <v>4</v>
       </c>
       <c r="G23" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="H23" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1414,28 +1454,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D24">
-        <v>357.65</v>
+        <v>77.150000000000006</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="H24" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1443,28 +1483,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="D25">
-        <v>170.2</v>
+        <v>316.3</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="H25" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I25" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1472,13 +1512,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26">
-        <v>122.3</v>
+        <v>380.35</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1487,13 +1527,13 @@
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="H26" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1501,28 +1541,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27">
+        <v>1447.1</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" t="s">
         <v>62</v>
-      </c>
-      <c r="D27">
-        <v>36.92</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>4</v>
-      </c>
-      <c r="G27" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -1530,13 +1570,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28">
-        <v>450</v>
+        <v>1258.0999999999999</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1545,13 +1585,13 @@
         <v>4</v>
       </c>
       <c r="G28" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="H28" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -1559,28 +1599,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29">
+        <v>31.55</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" t="s">
         <v>66</v>
-      </c>
-      <c r="D29">
-        <v>23.95</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>4</v>
-      </c>
-      <c r="G29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -1588,13 +1628,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D30">
-        <v>353.35</v>
+        <v>11.45</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1603,13 +1643,13 @@
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="H30" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -1617,28 +1657,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="D31">
-        <v>94.7</v>
+        <v>72.010000000000005</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F31">
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="H31" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I31" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -1646,28 +1686,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D32">
-        <v>968.65</v>
+        <v>144.59</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F32">
         <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="H32" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I32" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -1675,28 +1715,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D33">
-        <v>1141.0999999999999</v>
+        <v>494.85</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="H33" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I33" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -1704,28 +1744,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D34">
-        <v>181.9</v>
+        <v>5.4</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="H34" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -1733,28 +1773,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D35">
-        <v>12</v>
+        <v>269.35000000000002</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F35">
         <v>4</v>
       </c>
       <c r="G35" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="H35" t="s">
         <v>11</v>
       </c>
       <c r="I35" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -1762,28 +1802,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D36">
-        <v>1.1100000000000001</v>
+        <v>692.95</v>
       </c>
       <c r="E36">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="H36" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I36" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -1791,28 +1831,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D37">
-        <v>92.8</v>
+        <v>89.45</v>
       </c>
       <c r="E37">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="H37" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I37" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -1820,28 +1860,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D38">
-        <v>78</v>
+        <v>357.65</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F38">
         <v>4</v>
       </c>
       <c r="G38" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="H38" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I38" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -1849,28 +1889,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D39">
-        <v>997.7</v>
-      </c>
-      <c r="E39" s="2">
-        <v>0</v>
+        <v>170.2</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
       </c>
       <c r="F39">
         <v>4</v>
       </c>
       <c r="G39" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="H39" t="s">
         <v>11</v>
       </c>
       <c r="I39" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -1878,28 +1918,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D40">
-        <v>267.8</v>
+        <v>122.3</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F40">
         <v>4</v>
       </c>
       <c r="G40" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="H40" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I40" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -1907,28 +1947,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D41">
-        <v>219.32</v>
-      </c>
-      <c r="E41" s="2">
-        <v>4</v>
+        <v>36.92</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
       </c>
       <c r="F41">
         <v>4</v>
       </c>
       <c r="G41" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="H41" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I41" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -1936,28 +1976,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D42">
-        <v>14.57</v>
+        <v>450</v>
       </c>
       <c r="E42">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="F42">
         <v>4</v>
       </c>
       <c r="G42" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="H42" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I42" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -1965,28 +2005,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D43">
-        <v>673</v>
+        <v>23.95</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G43" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="H43" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I43" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -1994,28 +2034,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D44">
-        <v>111.35</v>
+        <v>353.35</v>
       </c>
       <c r="E44">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G44" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="H44" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I44" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -2023,28 +2063,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" t="s">
         <v>94</v>
       </c>
-      <c r="C45" t="s">
-        <v>100</v>
-      </c>
       <c r="D45">
-        <v>592.22</v>
+        <v>94.7</v>
       </c>
       <c r="E45">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G45" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="H45" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I45" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -2052,28 +2092,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D46">
-        <v>810.2</v>
+        <v>968.65</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G46" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="H46" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I46" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -2081,28 +2121,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="C47" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D47">
-        <v>189.75</v>
+        <v>1141.0999999999999</v>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G47" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="H47" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I47" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -2110,28 +2150,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="C48" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D48">
-        <v>2411.1999999999998</v>
+        <v>181.9</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G48" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="H48" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I48" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -2139,28 +2179,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D49">
-        <v>1298.7</v>
+        <v>12</v>
       </c>
       <c r="E49">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G49" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="H49" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I49" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -2168,28 +2208,434 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="C50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E50">
+        <v>11</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+      <c r="G50" t="s">
+        <v>42</v>
+      </c>
+      <c r="H50" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51">
+        <v>92.8</v>
+      </c>
+      <c r="E51">
+        <v>6</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
+      <c r="G51" t="s">
+        <v>42</v>
+      </c>
+      <c r="H51" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52">
+        <v>78</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52" t="s">
+        <v>42</v>
+      </c>
+      <c r="H52" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53">
+        <v>997.7</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="G53" t="s">
+        <v>42</v>
+      </c>
+      <c r="H53" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" t="s">
         <v>110</v>
       </c>
-      <c r="D50">
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54">
+        <v>267.8</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
+      </c>
+      <c r="G54" t="s">
+        <v>42</v>
+      </c>
+      <c r="H54" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" t="s">
+        <v>113</v>
+      </c>
+      <c r="D55">
+        <v>219.32</v>
+      </c>
+      <c r="E55">
+        <v>10</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="G55" t="s">
+        <v>42</v>
+      </c>
+      <c r="H55" t="s">
+        <v>11</v>
+      </c>
+      <c r="I55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56">
+        <v>14.57</v>
+      </c>
+      <c r="E56">
+        <v>171</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
+      <c r="G56" t="s">
+        <v>42</v>
+      </c>
+      <c r="H56" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57">
+        <v>673</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57" t="s">
+        <v>119</v>
+      </c>
+      <c r="H57" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58">
+        <v>111.35</v>
+      </c>
+      <c r="E58">
+        <v>12</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58" t="s">
+        <v>119</v>
+      </c>
+      <c r="H58" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" t="s">
+        <v>121</v>
+      </c>
+      <c r="D59">
+        <v>592.22</v>
+      </c>
+      <c r="E59">
+        <v>7</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59" t="s">
+        <v>119</v>
+      </c>
+      <c r="H59" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60">
+        <v>810.2</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60" t="s">
+        <v>119</v>
+      </c>
+      <c r="H60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61">
+        <v>189.75</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61" t="s">
+        <v>119</v>
+      </c>
+      <c r="H61" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62">
+        <v>2411.1999999999998</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62" t="s">
+        <v>119</v>
+      </c>
+      <c r="H62" t="s">
+        <v>22</v>
+      </c>
+      <c r="I62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" t="s">
+        <v>127</v>
+      </c>
+      <c r="D63">
+        <v>1298.7</v>
+      </c>
+      <c r="E63">
+        <v>6</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63" t="s">
+        <v>119</v>
+      </c>
+      <c r="H63" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64">
         <v>24.17</v>
       </c>
-      <c r="E50">
+      <c r="E64">
         <v>80</v>
       </c>
-      <c r="F50">
+      <c r="F64">
         <v>2</v>
       </c>
-      <c r="G50" t="s">
-        <v>96</v>
-      </c>
-      <c r="H50" t="s">
-        <v>11</v>
-      </c>
-      <c r="I50" t="s">
-        <v>111</v>
+      <c r="G64" t="s">
+        <v>119</v>
+      </c>
+      <c r="H64" t="s">
+        <v>22</v>
+      </c>
+      <c r="I64" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
